--- a/src/main/webapp/importDate/123123.xlsx
+++ b/src/main/webapp/importDate/123123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="125">
   <si>
     <t>女</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -349,10 +349,6 @@
   </si>
   <si>
     <t>韩健健</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命科技学院</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -492,6 +488,22 @@
   </si>
   <si>
     <t>孙昭君</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源与环境学院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命科技学院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命科技学院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学科学学院</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1206,7 +1218,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1343,7 +1355,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1372,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1401,7 +1413,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1430,7 +1442,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1459,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -1488,7 +1500,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1517,7 +1529,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1575,7 +1587,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -1662,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -1691,7 +1703,7 @@
         <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -1807,13 +1819,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>4</v>
@@ -1827,22 +1839,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>4</v>
@@ -1851,21 +1863,21 @@
         <v>5</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>97</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -1880,21 +1892,21 @@
         <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1909,21 +1921,21 @@
         <v>5</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -1938,27 +1950,27 @@
         <v>5</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>4</v>
@@ -1967,27 +1979,27 @@
         <v>5</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>108</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>4</v>
@@ -1996,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2010,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
@@ -2030,22 +2042,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>111</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>4</v>
@@ -2054,21 +2066,21 @@
         <v>5</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="40" t="s">
         <v>113</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>114</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
@@ -2083,27 +2095,27 @@
         <v>5</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="42" t="s">
         <v>115</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>116</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
         <v>70</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>4</v>
@@ -2112,21 +2124,21 @@
         <v>5</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
@@ -2141,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/importDate/123123.xlsx
+++ b/src/main/webapp/importDate/123123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
   <si>
     <t>女</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>密码（必填）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>艺术学院</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -127,10 +123,6 @@
   </si>
   <si>
     <t>410822199511263000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20131514111</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1215,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1231,17 +1223,16 @@
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
-    <col min="18" max="18" width="3.5" customWidth="1"/>
-    <col min="19" max="19" width="3.875" customWidth="1"/>
-    <col min="20" max="20" width="4.375" customWidth="1"/>
-    <col min="21" max="21" width="200.625" customWidth="1"/>
-    <col min="22" max="22" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="19.875" customWidth="1"/>
+    <col min="17" max="17" width="3.5" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="19" max="19" width="4.375" customWidth="1"/>
+    <col min="20" max="20" width="200.625" customWidth="1"/>
+    <col min="21" max="21" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -1266,9 +1257,7 @@
       <c r="H1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -1276,11 +1265,10 @@
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -1289,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -1303,616 +1291,553 @@
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R2" s="2"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="C13" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="B14" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="F15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="D16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="F17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="F18" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="F19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="B22" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>96</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>4</v>
@@ -1920,28 +1845,25 @@
       <c r="H23" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>4</v>
@@ -1949,57 +1871,51 @@
       <c r="H24" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="13" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="B25" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>4</v>
@@ -2007,11 +1923,8 @@
       <c r="H26" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
@@ -2036,51 +1949,45 @@
       <c r="H27" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="40" t="s">
         <v>111</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
@@ -2094,66 +2001,57 @@
       <c r="H29" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="39" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
-        <v>114</v>
-      </c>
       <c r="B30" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="43" t="s">
+      <c r="B31" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
